--- a/pred_ohlcv/54_21/2019-10-26 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8446.361699999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8446.5797</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8415.0753</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8415.175300000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8399.616</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>8233.3477</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8233.5177</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8233.617700000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8233.737700000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7158.737700000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>7179.200400000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>7179.340400000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>7179.450400000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7161.843900000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9661.843900000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9661.943900000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9662.123900000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9179.662000000008</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9299.621900000007</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9564.920800000007</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10490.54570000001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10372.37290000001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10372.47290000001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10698.27390000001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10715.13220000001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10523.15620000001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10559.33460000001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>10249.55000000001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>10231.13510000001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>10571.74010000001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10571.74010000001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10637.18010000001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10913.91110000001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10903.91110000001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10904.01110000001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4904.011100000011</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4904.111100000011</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5852.265600000011</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>7902.34160000001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>8654.394000000009</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>8674.394000000009</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>7854.70525828001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>7539.27915828001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>7539.27915828001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>7520.87005828001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>8904.647258280009</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>8904.747258280009</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>8867.86185828001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>8847.86185828001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>8830.066758280011</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>9098.659858280011</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>8692.69825828001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6478.074758280007</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1932.803458280007</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1771.213958280007</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1808.653958280007</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1717.003958280007</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1717.103958280007</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2165.797358280007</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-196.6143417199926</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>13507.72232051001</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8446.361699999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8446.5797</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8415.0753</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8415.175300000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8399.616</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>8233.3477</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8233.5177</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8233.617700000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8233.737700000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7158.737700000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>7179.200400000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>7179.340400000002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>7179.450400000002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7161.843900000002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9661.843900000002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9661.943900000002</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9662.123900000002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9179.662000000008</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9299.621900000007</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9564.920800000007</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10490.54570000001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10372.37290000001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10372.47290000001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10698.27390000001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10715.13220000001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10523.15620000001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>10559.03460000001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10559.33460000001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>10249.55000000001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>10231.13510000001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>10496.39760000001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>10571.74010000001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10571.74010000001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10637.18010000001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10913.91110000001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10903.91110000001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10904.01110000001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4904.011100000011</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4904.111100000011</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5852.265600000011</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>6984.20610000001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6478.074758280007</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1932.803458280007</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1771.213958280007</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1808.653958280007</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1717.003958280007</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1717.103958280007</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2165.797358280007</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-196.6143417199926</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
